--- a/medicine/Pharmacie/1923_en_santé_et_médecine/1923_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1923_en_santé_et_médecine/1923_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1923_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1923_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1923 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1923_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1923_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le biologiste français Gaston Ramon découvre le principe des anatoxines qui permet la mise au point des vaccin antidiphtérique et anti-tétanique[1],[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le biologiste français Gaston Ramon découvre le principe des anatoxines qui permet la mise au point des vaccin antidiphtérique et anti-tétanique,.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1923_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1923_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Nobel de physiologie ou médecine remis au canadien Frederick Banting (1891-1941) pour la découverte de l'insuline.</t>
         </is>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1923_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1923_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>8 avril : Louis Lareng (mort en 2019), professeur agrégé de médecine, spécialiste en anesthésie réanimation et homme politique français, fondateur du service d'aide médicale urgente (SAMU) avec le docteur Madeleine Bertrand.
 10 juin : Martin Henriksson Holmdahl (mort en 2015), médecin anesthésiste suédois.
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1923_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1923_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>20 février : Thomas George Roddick, (né en 1846), médecin et député fédéral du Québec.</t>
         </is>
